--- a/天猫/output/主播花费统计0209_0228_4.xlsx
+++ b/天猫/output/主播花费统计0209_0228_4.xlsx
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>574.87</v>
+        <v>554.6799999999999</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1066.32</v>
+        <v>1020.16</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>383.17</v>
+        <v>320.9</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>976.6700000000001</v>
+        <v>952.48</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>965.61</v>
+        <v>880.51</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
